--- a/datasets/silso.xlsx
+++ b/datasets/silso.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>date</t>
+    <t>year_month_day</t>
+  </si>
+  <si>
+    <t>dec_date</t>
   </si>
   <si>
     <t>sunspots</t>
@@ -76,9 +79,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -376,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,112 +385,175 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="n">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>-29949</v>
       </c>
-      <c r="B2" t="s"/>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="n">
+        <v>1818.004</v>
+      </c>
+      <c r="D2" t="s"/>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>-29948</v>
       </c>
-      <c r="B3" t="s"/>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="n">
+        <v>1818.007</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>-29947</v>
       </c>
-      <c r="B4" t="s"/>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="n">
+        <v>1818.01</v>
+      </c>
+      <c r="D4" t="s"/>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>-29946</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
+        <v>1818.012</v>
+      </c>
+      <c r="D5" t="n">
         <v>22</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="n">
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>-29945</v>
       </c>
-      <c r="B6" t="s"/>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="n">
+        <v>1818.015</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>-29944</v>
       </c>
-      <c r="B7" t="s"/>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="n">
+        <v>1818.018</v>
+      </c>
+      <c r="D7" t="s"/>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>-29943</v>
       </c>
-      <c r="B8" t="s"/>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="n">
+        <v>1818.02</v>
+      </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>-29942</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
+        <v>1818.023</v>
+      </c>
+      <c r="D9" t="n">
         <v>46</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="n">
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>-29941</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
+        <v>1818.026</v>
+      </c>
+      <c r="D10" t="n">
         <v>59</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="n">
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>-29940</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
+        <v>1818.029</v>
+      </c>
+      <c r="D11" t="n">
         <v>63</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>1</v>
       </c>
     </row>
